--- a/biology/Zoologie/Glaucilla/Glaucilla.xlsx
+++ b/biology/Zoologie/Glaucilla/Glaucilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaucilla est un genre de petits mollusques marins appartenant à l'ordre des nudibranches, de la famille des Glaucidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (26 septembre 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (26 septembre 2021) :
 Glaucilla bennettae (Churchill, Valdés &amp; Ó Foighil, 2014)
 Glaucilla marginata Reinhardt &amp; Bergh, 1864
 Glaucilla mcfarlanei (Churchill, Valdés &amp; Ó Foighil, 2014)
@@ -548,7 +562,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans toutes les eaux tempérées ou tropicales, où il flotte à la surface des eaux parmi le pleuston, face ventrale tournée vers la surface. Glaucilla marginata est la seule espèce de son genre dans l'océan Indien central. 
 </t>
@@ -579,9 +595,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Glaucilla a été réérigé en 2004 à la suite d'une analyse génétique départageant ces espèces du genre Glaucus[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Glaucilla a été réérigé en 2004 à la suite d'une analyse génétique départageant ces espèces du genre Glaucus. 
 </t>
         </is>
       </c>
